--- a/Proyecto Grupal/Libro1.xlsx
+++ b/Proyecto Grupal/Libro1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Documents\Repositories\an-lisis_procesos_ii\Proyecto Grupal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6763231-ED3A-4A7C-87C0-19C64E6B0B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE19D391-6054-47BF-93DE-914247723193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37020" yWindow="-4395" windowWidth="15375" windowHeight="8325" xr2:uid="{AA05CE9E-1D67-4561-8872-82675FB6B638}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{AA05CE9E-1D67-4561-8872-82675FB6B638}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,7 +67,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -79,6 +75,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60C4A63A-B259-4D1C-B006-93CB79723E65}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection sqref="A1:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -414,8 +411,9 @@
       <c r="D1" s="2">
         <v>375</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,7 +427,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -443,7 +441,7 @@
         <v>529.70000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -457,7 +455,7 @@
         <v>599.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -471,7 +469,7 @@
         <v>674.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -485,7 +483,7 @@
         <v>749.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -499,7 +497,7 @@
         <v>820.9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -513,7 +511,7 @@
         <v>892.3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -527,7 +525,7 @@
         <v>967.3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -541,7 +539,7 @@
         <v>1042.3</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -555,7 +553,7 @@
         <v>1113.8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -569,7 +567,7 @@
         <v>1185.2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -583,7 +581,7 @@
         <v>1258.4000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -597,7 +595,7 @@
         <v>1331.5</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -611,7 +609,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
